--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="756" uniqueCount="108">
   <si>
     <t>Lh2 Feed pressure (bar)_1</t>
   </si>
@@ -67,6 +67,276 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_6</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 1</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 2</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 3</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 4</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 5</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 6</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 7</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 8</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_ 9</t>
+  </si>
+  <si>
+    <t>Reference valve orifice diameter (m)_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_10</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_10</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_10</t>
   </si>
 </sst>
 </file>
@@ -112,142 +382,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="true"/>
-    <col min="2" max="2" width="23.85546875" customWidth="true"/>
-    <col min="3" max="3" width="23.85546875" customWidth="true"/>
-    <col min="4" max="4" width="23.85546875" customWidth="true"/>
-    <col min="5" max="5" width="23.85546875" customWidth="true"/>
-    <col min="6" max="6" width="23.85546875" customWidth="true"/>
-    <col min="7" max="7" width="34.28515625" customWidth="true"/>
-    <col min="8" max="8" width="34.28515625" customWidth="true"/>
-    <col min="9" max="9" width="34.28515625" customWidth="true"/>
-    <col min="10" max="10" width="34.28515625" customWidth="true"/>
-    <col min="11" max="11" width="34.28515625" customWidth="true"/>
-    <col min="12" max="12" width="34.28515625" customWidth="true"/>
-    <col min="13" max="13" width="19.28515625" customWidth="true"/>
-    <col min="14" max="14" width="19.28515625" customWidth="true"/>
-    <col min="15" max="15" width="19.28515625" customWidth="true"/>
-    <col min="16" max="16" width="19.28515625" customWidth="true"/>
-    <col min="17" max="17" width="19.28515625" customWidth="true"/>
-    <col min="18" max="18" width="19.28515625" customWidth="true"/>
+    <col min="1" max="1" width="36.140625" customWidth="true"/>
+    <col min="2" max="2" width="36.140625" customWidth="true"/>
+    <col min="3" max="3" width="36.140625" customWidth="true"/>
+    <col min="4" max="4" width="36.140625" customWidth="true"/>
+    <col min="5" max="5" width="36.140625" customWidth="true"/>
+    <col min="6" max="6" width="36.140625" customWidth="true"/>
+    <col min="7" max="7" width="36.140625" customWidth="true"/>
+    <col min="8" max="8" width="36.140625" customWidth="true"/>
+    <col min="9" max="9" width="36.140625" customWidth="true"/>
+    <col min="10" max="10" width="36.7109375" customWidth="true"/>
+    <col min="11" max="11" width="35.7109375" customWidth="true"/>
+    <col min="12" max="12" width="35.7109375" customWidth="true"/>
+    <col min="13" max="13" width="35.7109375" customWidth="true"/>
+    <col min="14" max="14" width="35.7109375" customWidth="true"/>
+    <col min="15" max="15" width="35.7109375" customWidth="true"/>
+    <col min="16" max="16" width="35.7109375" customWidth="true"/>
+    <col min="17" max="17" width="35.7109375" customWidth="true"/>
+    <col min="18" max="18" width="35.7109375" customWidth="true"/>
+    <col min="19" max="19" width="35.7109375" customWidth="true"/>
+    <col min="20" max="20" width="36.28515625" customWidth="true"/>
+    <col min="21" max="21" width="34.28515625" customWidth="true"/>
+    <col min="22" max="22" width="34.28515625" customWidth="true"/>
+    <col min="23" max="23" width="34.28515625" customWidth="true"/>
+    <col min="24" max="24" width="34.28515625" customWidth="true"/>
+    <col min="25" max="25" width="34.28515625" customWidth="true"/>
+    <col min="26" max="26" width="34.28515625" customWidth="true"/>
+    <col min="27" max="27" width="34.28515625" customWidth="true"/>
+    <col min="28" max="28" width="34.28515625" customWidth="true"/>
+    <col min="29" max="29" width="34.28515625" customWidth="true"/>
+    <col min="30" max="30" width="34.85546875" customWidth="true"/>
+    <col min="31" max="31" width="41.140625" customWidth="true"/>
+    <col min="32" max="32" width="41.140625" customWidth="true"/>
+    <col min="33" max="33" width="41.140625" customWidth="true"/>
+    <col min="34" max="34" width="41.140625" customWidth="true"/>
+    <col min="35" max="35" width="41.140625" customWidth="true"/>
+    <col min="36" max="36" width="41.140625" customWidth="true"/>
+    <col min="37" max="37" width="41.140625" customWidth="true"/>
+    <col min="38" max="38" width="41.140625" customWidth="true"/>
+    <col min="39" max="39" width="41.140625" customWidth="true"/>
+    <col min="40" max="40" width="41.7109375" customWidth="true"/>
+    <col min="41" max="41" width="34.42578125" customWidth="true"/>
+    <col min="42" max="42" width="34.42578125" customWidth="true"/>
+    <col min="43" max="43" width="34.42578125" customWidth="true"/>
+    <col min="44" max="44" width="34.42578125" customWidth="true"/>
+    <col min="45" max="45" width="34.42578125" customWidth="true"/>
+    <col min="46" max="46" width="34.42578125" customWidth="true"/>
+    <col min="47" max="47" width="34.42578125" customWidth="true"/>
+    <col min="48" max="48" width="34.42578125" customWidth="true"/>
+    <col min="49" max="49" width="34.42578125" customWidth="true"/>
+    <col min="50" max="50" width="35" customWidth="true"/>
+    <col min="51" max="51" width="33" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="33" customWidth="true"/>
+    <col min="54" max="54" width="33" customWidth="true"/>
+    <col min="55" max="55" width="33" customWidth="true"/>
+    <col min="56" max="56" width="33" customWidth="true"/>
+    <col min="57" max="57" width="33" customWidth="true"/>
+    <col min="58" max="58" width="33" customWidth="true"/>
+    <col min="59" max="59" width="33" customWidth="true"/>
+    <col min="60" max="60" width="33.5703125" customWidth="true"/>
+    <col min="61" max="61" width="39.85546875" customWidth="true"/>
+    <col min="62" max="62" width="39.85546875" customWidth="true"/>
+    <col min="63" max="63" width="39.85546875" customWidth="true"/>
+    <col min="64" max="64" width="39.85546875" customWidth="true"/>
+    <col min="65" max="65" width="39.85546875" customWidth="true"/>
+    <col min="66" max="66" width="39.85546875" customWidth="true"/>
+    <col min="67" max="67" width="39.85546875" customWidth="true"/>
+    <col min="68" max="68" width="39.85546875" customWidth="true"/>
+    <col min="69" max="69" width="39.85546875" customWidth="true"/>
+    <col min="70" max="70" width="40.42578125" customWidth="true"/>
+    <col min="71" max="71" width="34.7109375" customWidth="true"/>
+    <col min="72" max="72" width="34.7109375" customWidth="true"/>
+    <col min="73" max="73" width="34.7109375" customWidth="true"/>
+    <col min="74" max="74" width="34.7109375" customWidth="true"/>
+    <col min="75" max="75" width="34.7109375" customWidth="true"/>
+    <col min="76" max="76" width="34.7109375" customWidth="true"/>
+    <col min="77" max="77" width="34.7109375" customWidth="true"/>
+    <col min="78" max="78" width="34.7109375" customWidth="true"/>
+    <col min="79" max="79" width="34.7109375" customWidth="true"/>
+    <col min="80" max="80" width="35.28515625" customWidth="true"/>
+    <col min="81" max="81" width="33.42578125" customWidth="true"/>
+    <col min="82" max="82" width="33.42578125" customWidth="true"/>
+    <col min="83" max="83" width="33.42578125" customWidth="true"/>
+    <col min="84" max="84" width="33.42578125" customWidth="true"/>
+    <col min="85" max="85" width="33.42578125" customWidth="true"/>
+    <col min="86" max="86" width="33.42578125" customWidth="true"/>
+    <col min="87" max="87" width="33.42578125" customWidth="true"/>
+    <col min="88" max="88" width="33.42578125" customWidth="true"/>
+    <col min="89" max="89" width="33.42578125" customWidth="true"/>
+    <col min="90" max="90" width="34" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0072222222222222219</v>
+        <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0077777777777777776</v>
+        <v>0.0073333333333333332</v>
       </c>
       <c r="C2" s="0">
+        <v>0.0076666666666666671</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.0080000000000000002</v>
+      </c>
+      <c r="E2" s="0">
         <v>0.0083333333333333332</v>
       </c>
-      <c r="D2" s="0">
-        <v>0.0088888888888888889</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.0094444444444444445</v>
-      </c>
       <c r="F2" s="0">
+        <v>0.0086666666666666663</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.0090000000000000011</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0093333333333333341</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.0096666666666666672</v>
+      </c>
+      <c r="J2" s="0">
         <v>0.01</v>
       </c>
-      <c r="G2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="H2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="I2" s="0">
-        <v>303</v>
-      </c>
-      <c r="J2" s="0">
-        <v>302.5</v>
-      </c>
       <c r="K2" s="0">
-        <v>302.5</v>
+        <v>32.960446113765371</v>
       </c>
       <c r="L2" s="0">
-        <v>302.5</v>
+        <v>33.040359978616614</v>
       </c>
       <c r="M2" s="0">
-        <v>33.016609792543989</v>
+        <v>33.108913301523891</v>
       </c>
       <c r="N2" s="0">
-        <v>33.126101179302687</v>
+        <v>33.162286371681766</v>
       </c>
       <c r="O2" s="0">
         <v>33.208020363820232</v>
       </c>
       <c r="P2" s="0">
-        <v>33.015122230673406</v>
+        <v>32.992037919716765</v>
       </c>
       <c r="Q2" s="0">
-        <v>33.05802824186042</v>
+        <v>33.020999053755368</v>
       </c>
       <c r="R2" s="0">
+        <v>33.050849562670599</v>
+      </c>
+      <c r="S2" s="0">
+        <v>33.074087881155684</v>
+      </c>
+      <c r="T2" s="0">
         <v>33.098136840673291</v>
+      </c>
+      <c r="U2" s="0">
+        <v>16.35962557449124</v>
+      </c>
+      <c r="V2" s="0">
+        <v>16.383107632351305</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.44576100653072</v>
+      </c>
+      <c r="X2" s="0">
+        <v>16.499544172806093</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>16.543862528657641</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>16.391325682441302</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>16.414305658822748</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>16.442669765079565</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>16.465070866755827</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>16.487995235491564</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.49634114532384682</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.49585136611569264</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0.49671702773083093</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0.49753940328117818</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0.49818876125124262</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0.49682671080604834</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0.4970868880163698</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0.49749613043686469</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0.49782388333487432</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0.4981547848104238</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>29.804042767520642</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>29.83406856780411</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>29.861535756023009</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>29.889471900796394</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>29.898562505422412</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>29.891172131120861</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>29.864858395699883</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>29.883627442132635</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>29.919859476340193</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>29.944112402738824</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>14.603714158059297</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>14.63977985013792</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>14.672584804851954</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>14.696364574547559</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>14.716108999997626</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>14.798797458205202</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>14.77738818085898</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>14.805573434983723</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>14.889220705168842</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>14.895251916273288</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>0.48999104826053641</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>0.49070678432162157</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>0.49135399212990993</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>0.49169033910418403</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>0.49220122195937377</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>0.49508923214147227</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>0.49480858020698715</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>0.49544097227331541</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>0.49763671908094459</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>0.49743507892092009</v>
+      </c>
+      <c r="BS2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="BT2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="BU2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="BV2" s="0">
+        <v>303</v>
+      </c>
+      <c r="BW2" s="0">
+        <v>303</v>
+      </c>
+      <c r="BX2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="BY2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="BZ2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="CA2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="CB2" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="CC2" s="0">
+        <v>270</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>269.5</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>269.5</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>269.5</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>269.5</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>269.5</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>Reference valve orifice diameter (m)</t>
   </si>
@@ -133,234 +133,234 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0070000000000000001</v>
+        <v>0.0073333333333333332</v>
       </c>
       <c r="B2" s="0">
-        <v>32.960446113765371</v>
+        <v>32.759981167585842</v>
       </c>
       <c r="C2" s="0">
-        <v>16.35962557449124</v>
+        <v>16.255830592676201</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49634114532384682</v>
+        <v>0.49621001030246104</v>
       </c>
       <c r="E2" s="0">
-        <v>29.804042767520642</v>
+        <v>29.484157969007036</v>
       </c>
       <c r="F2" s="0">
-        <v>14.603714158059297</v>
+        <v>14.473890698248377</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48999104826053641</v>
+        <v>0.49090398692962323</v>
       </c>
       <c r="H2" s="0">
-        <v>302.5</v>
+        <v>299.5</v>
       </c>
       <c r="I2" s="0">
-        <v>270</v>
+        <v>267.53388567723931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0073333333333333332</v>
+        <v>0.0076666666666666671</v>
       </c>
       <c r="B3" s="0">
-        <v>33.040359978616614</v>
+        <v>32.773716321270662</v>
       </c>
       <c r="C3" s="0">
-        <v>16.383107632351305</v>
+        <v>16.267584775096754</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49585136611569264</v>
+        <v>0.49636070000822075</v>
       </c>
       <c r="E3" s="0">
-        <v>29.83406856780411</v>
+        <v>29.456641558110285</v>
       </c>
       <c r="F3" s="0">
-        <v>14.63977985013792</v>
+        <v>14.446280068969243</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49070678432162157</v>
+        <v>0.49042522517275072</v>
       </c>
       <c r="H3" s="0">
-        <v>302.5</v>
+        <v>299.5</v>
       </c>
       <c r="I3" s="0">
-        <v>269.5</v>
+        <v>267.06634311906811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0076666666666666671</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="B4" s="0">
-        <v>33.108913301523891</v>
+        <v>32.776510725160918</v>
       </c>
       <c r="C4" s="0">
-        <v>16.44576100653072</v>
+        <v>16.268560151395505</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49671702773083093</v>
+        <v>0.49634814052695764</v>
       </c>
       <c r="E4" s="0">
-        <v>29.861535756023009</v>
+        <v>29.468268198019736</v>
       </c>
       <c r="F4" s="0">
-        <v>14.672584804851954</v>
+        <v>14.543245366568563</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49135399212990993</v>
+        <v>0.49352222766677095</v>
       </c>
       <c r="H4" s="0">
-        <v>302.5</v>
+        <v>299.42885403279951</v>
       </c>
       <c r="I4" s="0">
-        <v>269.5</v>
+        <v>267.07683827884216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0080000000000000002</v>
+        <v>0.0083333333333333332</v>
       </c>
       <c r="B5" s="0">
-        <v>33.162286371681766</v>
+        <v>32.770422117765463</v>
       </c>
       <c r="C5" s="0">
-        <v>16.499544172806093</v>
+        <v>16.261398766668357</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49753940328117818</v>
+        <v>0.49622182797128961</v>
       </c>
       <c r="E5" s="0">
-        <v>29.889471900796394</v>
+        <v>29.448032252660553</v>
       </c>
       <c r="F5" s="0">
-        <v>14.696364574547559</v>
+        <v>14.521508767853348</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49169033910418403</v>
+        <v>0.4931232295339994</v>
       </c>
       <c r="H5" s="0">
-        <v>303</v>
+        <v>299.46505562653471</v>
       </c>
       <c r="I5" s="0">
-        <v>269.5</v>
+        <v>267.02984737512418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0083333333333333332</v>
+        <v>0.0090000000000000011</v>
       </c>
       <c r="B6" s="0">
-        <v>33.208020363820232</v>
+        <v>32.78687393164747</v>
       </c>
       <c r="C6" s="0">
-        <v>16.543862528657641</v>
+        <v>16.27451097026638</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49818876125124262</v>
+        <v>0.49637275588379404</v>
       </c>
       <c r="E6" s="0">
-        <v>29.898562505422412</v>
+        <v>29.40862926909962</v>
       </c>
       <c r="F6" s="0">
-        <v>14.716108999997626</v>
+        <v>14.534799489855429</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49220122195937377</v>
+        <v>0.49423587059623703</v>
       </c>
       <c r="H6" s="0">
-        <v>303</v>
+        <v>299.44182270258415</v>
       </c>
       <c r="I6" s="0">
-        <v>269.5</v>
+        <v>266.97448582686991</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0086666666666666663</v>
+        <v>0.0093333333333333341</v>
       </c>
       <c r="B7" s="0">
-        <v>32.992037919716765</v>
+        <v>32.76191764431006</v>
       </c>
       <c r="C7" s="0">
-        <v>16.391325682441302</v>
+        <v>16.248612515834804</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49682671080604834</v>
+        <v>0.4959603614245941</v>
       </c>
       <c r="E7" s="0">
-        <v>29.891172131120861</v>
+        <v>29.357828359400678</v>
       </c>
       <c r="F7" s="0">
-        <v>14.798797458205202</v>
+        <v>14.513303623197459</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49508923214147227</v>
+        <v>0.49435889622095125</v>
       </c>
       <c r="H7" s="0">
-        <v>302.5</v>
+        <v>298.90000000000003</v>
       </c>
       <c r="I7" s="0">
-        <v>269.5</v>
+        <v>266.07095207366655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0090000000000000011</v>
+        <v>0.0096666666666666672</v>
       </c>
       <c r="B8" s="0">
-        <v>33.020999053755368</v>
+        <v>32.78492082339698</v>
       </c>
       <c r="C8" s="0">
-        <v>16.414305658822748</v>
+        <v>16.268758823157672</v>
       </c>
       <c r="D8" s="0">
-        <v>0.4970868880163698</v>
+        <v>0.49622687548317829</v>
       </c>
       <c r="E8" s="0">
-        <v>29.864858395699883</v>
+        <v>29.346994149270166</v>
       </c>
       <c r="F8" s="0">
-        <v>14.77738818085898</v>
+        <v>14.513565164472201</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49480858020698715</v>
+        <v>0.49455031376128655</v>
       </c>
       <c r="H8" s="0">
-        <v>302.5</v>
+        <v>299.00567760877067</v>
       </c>
       <c r="I8" s="0">
-        <v>269</v>
+        <v>266.06085905064111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0093333333333333341</v>
+        <v>0.01</v>
       </c>
       <c r="B9" s="0">
-        <v>33.050849562670599</v>
+        <v>32.807420928529716</v>
       </c>
       <c r="C9" s="0">
-        <v>16.442669765079565</v>
+        <v>16.291181932318644</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49749613043686469</v>
+        <v>0.49657002809847944</v>
       </c>
       <c r="E9" s="0">
-        <v>29.883627442132635</v>
+        <v>29.344262227256216</v>
       </c>
       <c r="F9" s="0">
-        <v>14.805573434983723</v>
+        <v>14.583801195120969</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49544097227331541</v>
+        <v>0.49698987427855335</v>
       </c>
       <c r="H9" s="0">
-        <v>302.5</v>
+        <v>299.06489935018368</v>
       </c>
       <c r="I9" s="0">
-        <v>269</v>
+        <v>265.58113131378332</v>
       </c>
     </row>
     <row r="10">

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
   <si>
     <t>Reference valve orifice diameter (m)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="29.9296875" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,60 +133,60 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0073333333333333332</v>
+        <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>32.759981167585842</v>
+        <v>32.597262341577128</v>
       </c>
       <c r="C2" s="0">
-        <v>16.255830592676201</v>
+        <v>15.923361709705285</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49621001030246104</v>
+        <v>0.4884877000666209</v>
       </c>
       <c r="E2" s="0">
-        <v>29.484157969007036</v>
+        <v>28.703607597222579</v>
       </c>
       <c r="F2" s="0">
-        <v>14.473890698248377</v>
+        <v>14.616033388472928</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49090398692962323</v>
+        <v>0.50920544879129437</v>
       </c>
       <c r="H2" s="0">
-        <v>299.5</v>
+        <v>196.54214459656149</v>
       </c>
       <c r="I2" s="0">
-        <v>267.53388567723931</v>
+        <v>153.55040583731704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0076666666666666671</v>
+        <v>0.0073333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>32.773716321270662</v>
+        <v>32.632065554501885</v>
       </c>
       <c r="C3" s="0">
-        <v>16.267584775096754</v>
+        <v>15.94228411118338</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49636070000822075</v>
+        <v>0.48854658264144113</v>
       </c>
       <c r="E3" s="0">
-        <v>29.456641558110285</v>
+        <v>28.693006448011005</v>
       </c>
       <c r="F3" s="0">
-        <v>14.446280068969243</v>
+        <v>14.677291242538546</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49042522517275072</v>
+        <v>0.51152852417652361</v>
       </c>
       <c r="H3" s="0">
-        <v>299.5</v>
+        <v>196</v>
       </c>
       <c r="I3" s="0">
-        <v>267.06634311906811</v>
+        <v>152.95781645138049</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B4" s="0">
-        <v>32.776510725160918</v>
+        <v>32.622097303351637</v>
       </c>
       <c r="C4" s="0">
-        <v>16.268560151395505</v>
+        <v>15.920440986076908</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49634814052695764</v>
+        <v>0.48802628592617253</v>
       </c>
       <c r="E4" s="0">
-        <v>29.468268198019736</v>
+        <v>28.663759149486722</v>
       </c>
       <c r="F4" s="0">
-        <v>14.543245366568563</v>
+        <v>14.6901948350131</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49352222766677095</v>
+        <v>0.51250063742166752</v>
       </c>
       <c r="H4" s="0">
-        <v>299.42885403279951</v>
+        <v>195.55373332826034</v>
       </c>
       <c r="I4" s="0">
-        <v>267.07683827884216</v>
+        <v>152.0249076369895</v>
       </c>
     </row>
     <row r="5">

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="117" uniqueCount="9">
   <si>
     <t>Reference valve orifice diameter (m)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>32.597262341577128</v>
+        <v>34.874368085481017</v>
       </c>
       <c r="C2" s="0">
-        <v>15.923361709705285</v>
+        <v>17.587189328539658</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4884877000666209</v>
+        <v>0.50430130477006696</v>
       </c>
       <c r="E2" s="0">
-        <v>28.703607597222579</v>
+        <v>30.810033540373375</v>
       </c>
       <c r="F2" s="0">
-        <v>14.616033388472928</v>
+        <v>15.129240841217509</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50920544879129437</v>
+        <v>0.49104915193916288</v>
       </c>
       <c r="H2" s="0">
-        <v>196.54214459656149</v>
+        <v>330</v>
       </c>
       <c r="I2" s="0">
-        <v>153.55040583731704</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3">
@@ -165,231 +165,231 @@
         <v>0.0073333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>32.632065554501885</v>
+        <v>35.120181651155548</v>
       </c>
       <c r="C3" s="0">
-        <v>15.94228411118338</v>
+        <v>17.624823059158256</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48854658264144113</v>
+        <v>0.50184316340454782</v>
       </c>
       <c r="E3" s="0">
-        <v>28.693006448011005</v>
+        <v>30.761501133037108</v>
       </c>
       <c r="F3" s="0">
-        <v>14.677291242538546</v>
+        <v>15.077686310948698</v>
       </c>
       <c r="G3" s="0">
-        <v>0.51152852417652361</v>
+        <v>0.49014793672587154</v>
       </c>
       <c r="H3" s="0">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="I3" s="0">
-        <v>152.95781645138049</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0080000000000000002</v>
+        <v>0.0076666666666666671</v>
       </c>
       <c r="B4" s="0">
-        <v>32.622097303351637</v>
+        <v>35.291183472852822</v>
       </c>
       <c r="C4" s="0">
-        <v>15.920440986076908</v>
+        <v>17.507339517028687</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48802628592617253</v>
+        <v>0.49608252810495651</v>
       </c>
       <c r="E4" s="0">
-        <v>28.663759149486722</v>
+        <v>31.197968792440896</v>
       </c>
       <c r="F4" s="0">
-        <v>14.6901948350131</v>
+        <v>15.442119594800726</v>
       </c>
       <c r="G4" s="0">
-        <v>0.51250063742166752</v>
+        <v>0.49497195466591626</v>
       </c>
       <c r="H4" s="0">
-        <v>195.55373332826034</v>
+        <v>330</v>
       </c>
       <c r="I4" s="0">
-        <v>152.0249076369895</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0083333333333333332</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="B5" s="0">
-        <v>32.770422117765463</v>
+        <v>34.451276051897914</v>
       </c>
       <c r="C5" s="0">
-        <v>16.261398766668357</v>
+        <v>17.617526129005761</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49622182797128961</v>
+        <v>0.51137514042923859</v>
       </c>
       <c r="E5" s="0">
-        <v>29.448032252660553</v>
+        <v>31.051784844663437</v>
       </c>
       <c r="F5" s="0">
-        <v>14.521508767853348</v>
+        <v>15.333487318836546</v>
       </c>
       <c r="G5" s="0">
-        <v>0.4931232295339994</v>
+        <v>0.49380373448876841</v>
       </c>
       <c r="H5" s="0">
-        <v>299.46505562653471</v>
+        <v>329</v>
       </c>
       <c r="I5" s="0">
-        <v>267.02984737512418</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0090000000000000011</v>
+        <v>0.0086666666666666663</v>
       </c>
       <c r="B6" s="0">
-        <v>32.78687393164747</v>
+        <v>34.678833078869523</v>
       </c>
       <c r="C6" s="0">
-        <v>16.27451097026638</v>
+        <v>17.750483279424312</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49637275588379404</v>
+        <v>0.51185353437512349</v>
       </c>
       <c r="E6" s="0">
-        <v>29.40862926909962</v>
+        <v>30.984423622204936</v>
       </c>
       <c r="F6" s="0">
-        <v>14.534799489855429</v>
+        <v>15.262731207755314</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49423587059623703</v>
+        <v>0.49259367848357533</v>
       </c>
       <c r="H6" s="0">
-        <v>299.44182270258415</v>
+        <v>329</v>
       </c>
       <c r="I6" s="0">
-        <v>266.97448582686991</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0093333333333333341</v>
+        <v>0.0090000000000000011</v>
       </c>
       <c r="B7" s="0">
-        <v>32.76191764431006</v>
+        <v>34.758211165275164</v>
       </c>
       <c r="C7" s="0">
-        <v>16.248612515834804</v>
+        <v>17.724374238633104</v>
       </c>
       <c r="D7" s="0">
-        <v>0.4959603614245941</v>
+        <v>0.50993344146376729</v>
       </c>
       <c r="E7" s="0">
-        <v>29.357828359400678</v>
+        <v>31.293440963001402</v>
       </c>
       <c r="F7" s="0">
-        <v>14.513303623197459</v>
+        <v>15.560830678433838</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49435889622095125</v>
+        <v>0.49725534168107588</v>
       </c>
       <c r="H7" s="0">
-        <v>298.90000000000003</v>
+        <v>329</v>
       </c>
       <c r="I7" s="0">
-        <v>266.07095207366655</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0096666666666666672</v>
+        <v>0.0093333333333333341</v>
       </c>
       <c r="B8" s="0">
-        <v>32.78492082339698</v>
+        <v>34.847541904919815</v>
       </c>
       <c r="C8" s="0">
-        <v>16.268758823157672</v>
+        <v>17.764516048675105</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49622687548317829</v>
+        <v>0.50977816734233095</v>
       </c>
       <c r="E8" s="0">
-        <v>29.346994149270166</v>
+        <v>30.873088087028314</v>
       </c>
       <c r="F8" s="0">
-        <v>14.513565164472201</v>
+        <v>15.197448733130352</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49455031376128655</v>
+        <v>0.49225554276560163</v>
       </c>
       <c r="H8" s="0">
-        <v>299.00567760877067</v>
+        <v>329</v>
       </c>
       <c r="I8" s="0">
-        <v>266.06085905064111</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.01</v>
+        <v>0.0096666666666666672</v>
       </c>
       <c r="B9" s="0">
-        <v>32.807420928529716</v>
+        <v>34.906395716260988</v>
       </c>
       <c r="C9" s="0">
-        <v>16.291181932318644</v>
+        <v>17.772579761632922</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49657002809847944</v>
+        <v>0.50914966718702626</v>
       </c>
       <c r="E9" s="0">
-        <v>29.344262227256216</v>
+        <v>31.02792192749834</v>
       </c>
       <c r="F9" s="0">
-        <v>14.583801195120969</v>
+        <v>15.315461277215142</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49698987427855335</v>
+        <v>0.49360254653863528</v>
       </c>
       <c r="H9" s="0">
-        <v>299.06489935018368</v>
+        <v>329</v>
       </c>
       <c r="I9" s="0">
-        <v>265.58113131378332</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0096666666666666672</v>
+        <v>0.01</v>
       </c>
       <c r="B10" s="0">
-        <v>33.074087881155684</v>
+        <v>34.953292098841374</v>
       </c>
       <c r="C10" s="0">
-        <v>16.465070866755827</v>
+        <v>17.767381951044431</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49782388333487432</v>
+        <v>0.50831784029960891</v>
       </c>
       <c r="E10" s="0">
-        <v>29.919859476340193</v>
+        <v>31.177113745966082</v>
       </c>
       <c r="F10" s="0">
-        <v>14.889220705168842</v>
+        <v>15.445880782691894</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49763671908094459</v>
+        <v>0.49542369151122567</v>
       </c>
       <c r="H10" s="0">
-        <v>302.5</v>
+        <v>329</v>
       </c>
       <c r="I10" s="0">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="117" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Reference valve orifice diameter (m)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.9296875" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>34.874368085481017</v>
+        <v>33.207226185180005</v>
       </c>
       <c r="C2" s="0">
-        <v>17.587189328539658</v>
+        <v>16.270073689068269</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50430130477006696</v>
+        <v>0.48995581860219967</v>
       </c>
       <c r="E2" s="0">
-        <v>30.810033540373375</v>
+        <v>30.125609173907485</v>
       </c>
       <c r="F2" s="0">
-        <v>15.129240841217509</v>
+        <v>15.106612683022341</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49104915193916288</v>
+        <v>0.50145418125209373</v>
       </c>
       <c r="H2" s="0">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="I2" s="0">
-        <v>239</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.0073333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>35.120181651155548</v>
+        <v>33.028521380253522</v>
       </c>
       <c r="C3" s="0">
-        <v>17.624823059158256</v>
+        <v>16.156674875946859</v>
       </c>
       <c r="D3" s="0">
-        <v>0.50184316340454782</v>
+        <v>0.48917342347654447</v>
       </c>
       <c r="E3" s="0">
-        <v>30.761501133037108</v>
+        <v>30.30614439007276</v>
       </c>
       <c r="F3" s="0">
-        <v>15.077686310948698</v>
+        <v>15.267554599718283</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49014793672587154</v>
+        <v>0.50377753115699542</v>
       </c>
       <c r="H3" s="0">
-        <v>330</v>
+        <v>281.5</v>
       </c>
       <c r="I3" s="0">
-        <v>238</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.0076666666666666671</v>
       </c>
       <c r="B4" s="0">
-        <v>35.291183472852822</v>
+        <v>33.189505294638941</v>
       </c>
       <c r="C4" s="0">
-        <v>17.507339517028687</v>
+        <v>16.248281182820662</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49608252810495651</v>
+        <v>0.48956081262968465</v>
       </c>
       <c r="E4" s="0">
-        <v>31.197968792440896</v>
+        <v>30.439520634747339</v>
       </c>
       <c r="F4" s="0">
-        <v>15.442119594800726</v>
+        <v>15.370079113649274</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49497195466591626</v>
+        <v>0.50493827738220065</v>
       </c>
       <c r="H4" s="0">
-        <v>330</v>
+        <v>281.5</v>
       </c>
       <c r="I4" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
@@ -223,173 +223,173 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B5" s="0">
-        <v>34.451276051897914</v>
+        <v>33.328107027831287</v>
       </c>
       <c r="C5" s="0">
-        <v>17.617526129005761</v>
+        <v>16.32260635156851</v>
       </c>
       <c r="D5" s="0">
-        <v>0.51137514042923859</v>
+        <v>0.48975497882126934</v>
       </c>
       <c r="E5" s="0">
-        <v>31.051784844663437</v>
+        <v>30.182555240022822</v>
       </c>
       <c r="F5" s="0">
-        <v>15.333487318836546</v>
+        <v>15.145552571550679</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49380373448876841</v>
+        <v>0.50179822255298312</v>
       </c>
       <c r="H5" s="0">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="I5" s="0">
-        <v>238</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0086666666666666663</v>
+        <v>0.0083333333333333332</v>
       </c>
       <c r="B6" s="0">
-        <v>34.678833078869523</v>
+        <v>33.051379859167362</v>
       </c>
       <c r="C6" s="0">
-        <v>17.750483279424312</v>
+        <v>16.172682622016822</v>
       </c>
       <c r="D6" s="0">
-        <v>0.51185353437512349</v>
+        <v>0.4893194381272119</v>
       </c>
       <c r="E6" s="0">
-        <v>30.984423622204936</v>
+        <v>30.292616485853422</v>
       </c>
       <c r="F6" s="0">
-        <v>15.262731207755314</v>
+        <v>15.243230345571105</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49259367848357533</v>
+        <v>0.50319952892447095</v>
       </c>
       <c r="H6" s="0">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="I6" s="0">
-        <v>238</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0090000000000000011</v>
+        <v>0.0086666666666666663</v>
       </c>
       <c r="B7" s="0">
-        <v>34.758211165275164</v>
+        <v>33.144376478583418</v>
       </c>
       <c r="C7" s="0">
-        <v>17.724374238633104</v>
+        <v>16.206766987962084</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50993344146376729</v>
+        <v>0.48897486421065289</v>
       </c>
       <c r="E7" s="0">
-        <v>31.293440963001402</v>
+        <v>30.380946399435807</v>
       </c>
       <c r="F7" s="0">
-        <v>15.560830678433838</v>
+        <v>15.305862172752631</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49725534168107588</v>
+        <v>0.50379807039312219</v>
       </c>
       <c r="H7" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I7" s="0">
-        <v>238</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0093333333333333341</v>
+        <v>0.0090000000000000011</v>
       </c>
       <c r="B8" s="0">
-        <v>34.847541904919815</v>
+        <v>33.222573189920894</v>
       </c>
       <c r="C8" s="0">
-        <v>17.764516048675105</v>
+        <v>16.280306914143384</v>
       </c>
       <c r="D8" s="0">
-        <v>0.50977816734233095</v>
+        <v>0.49003750615808783</v>
       </c>
       <c r="E8" s="0">
-        <v>30.873088087028314</v>
+        <v>30.420725389849224</v>
       </c>
       <c r="F8" s="0">
-        <v>15.197448733130352</v>
+        <v>15.326754929914344</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49225554276560163</v>
+        <v>0.50382608348414237</v>
       </c>
       <c r="H8" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I8" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0096666666666666672</v>
+        <v>0.0093333333333333341</v>
       </c>
       <c r="B9" s="0">
-        <v>34.906395716260988</v>
+        <v>33.290167005814595</v>
       </c>
       <c r="C9" s="0">
-        <v>17.772579761632922</v>
+        <v>16.280345067674681</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50914966718702626</v>
+        <v>0.48904365859237325</v>
       </c>
       <c r="E9" s="0">
-        <v>31.02792192749834</v>
+        <v>30.495546772448243</v>
       </c>
       <c r="F9" s="0">
-        <v>15.315461277215142</v>
+        <v>15.390815272280866</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49360254653863528</v>
+        <v>0.50469058276357837</v>
       </c>
       <c r="H9" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I9" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.01</v>
+        <v>0.0096666666666666672</v>
       </c>
       <c r="B10" s="0">
-        <v>34.953292098841374</v>
+        <v>33.3482677238365</v>
       </c>
       <c r="C10" s="0">
-        <v>17.767381951044431</v>
+        <v>16.335566351619534</v>
       </c>
       <c r="D10" s="0">
-        <v>0.50831784029960891</v>
+        <v>0.48984752332257675</v>
       </c>
       <c r="E10" s="0">
-        <v>31.177113745966082</v>
+        <v>30.525144095978675</v>
       </c>
       <c r="F10" s="0">
-        <v>15.445880782691894</v>
+        <v>15.394546399453459</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49542369151122567</v>
+        <v>0.50432346366815373</v>
       </c>
       <c r="H10" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I10" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.01</v>
       </c>
       <c r="B11" s="0">
-        <v>33.098136840673291</v>
+        <v>33.39462924544231</v>
       </c>
       <c r="C11" s="0">
-        <v>16.487995235491564</v>
+        <v>16.317367183436009</v>
       </c>
       <c r="D11" s="0">
-        <v>0.4981547848104238</v>
+        <v>0.48862249865112661</v>
       </c>
       <c r="E11" s="0">
-        <v>29.944112402738824</v>
+        <v>30.590676489596902</v>
       </c>
       <c r="F11" s="0">
-        <v>14.895251916273288</v>
+        <v>15.480958121910632</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49743507892092009</v>
+        <v>0.50606785787085506</v>
       </c>
       <c r="H11" s="0">
-        <v>302.5</v>
+        <v>281.5</v>
       </c>
       <c r="I11" s="0">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -136,28 +136,28 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>33.207226185180005</v>
+        <v>34.852685675233843</v>
       </c>
       <c r="C2" s="0">
-        <v>16.270073689068269</v>
+        <v>16.082241287026495</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48995581860219967</v>
+        <v>0.46143477828035678</v>
       </c>
       <c r="E2" s="0">
-        <v>30.125609173907485</v>
+        <v>30.762583279862866</v>
       </c>
       <c r="F2" s="0">
-        <v>15.106612683022341</v>
+        <v>15.359820453489798</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50145418125209373</v>
+        <v>0.49930203565005249</v>
       </c>
       <c r="H2" s="0">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="I2" s="0">
-        <v>248.5</v>
+        <v>303.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.0073333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>33.028521380253522</v>
+        <v>35.056145633056971</v>
       </c>
       <c r="C3" s="0">
-        <v>16.156674875946859</v>
+        <v>16.252334883549981</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48917342347654447</v>
+        <v>0.46360872223854754</v>
       </c>
       <c r="E3" s="0">
-        <v>30.30614439007276</v>
+        <v>30.589320366890298</v>
       </c>
       <c r="F3" s="0">
-        <v>15.267554599718283</v>
+        <v>15.21192787004836</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50377753115699542</v>
+        <v>0.49729538569656034</v>
       </c>
       <c r="H3" s="0">
-        <v>281.5</v>
+        <v>339</v>
       </c>
       <c r="I3" s="0">
-        <v>248.5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.0076666666666666671</v>
       </c>
       <c r="B4" s="0">
-        <v>33.189505294638941</v>
+        <v>34.758320304648343</v>
       </c>
       <c r="C4" s="0">
-        <v>16.248281182820662</v>
+        <v>15.978548903702665</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48956081262968465</v>
+        <v>0.45970428845969868</v>
       </c>
       <c r="E4" s="0">
-        <v>30.439520634747339</v>
+        <v>30.74272736618687</v>
       </c>
       <c r="F4" s="0">
-        <v>15.370079113649274</v>
+        <v>15.359180370335979</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50493827738220065</v>
+        <v>0.49960370097902063</v>
       </c>
       <c r="H4" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>248</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B5" s="0">
-        <v>33.328107027831287</v>
+        <v>34.89133841210343</v>
       </c>
       <c r="C5" s="0">
-        <v>16.32260635156851</v>
+        <v>16.09135863563845</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48975497882126934</v>
+        <v>0.46118490628197084</v>
       </c>
       <c r="E5" s="0">
-        <v>30.182555240022822</v>
+        <v>30.862960336249095</v>
       </c>
       <c r="F5" s="0">
-        <v>15.145552571550679</v>
+        <v>15.47113461294332</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50179822255298312</v>
+        <v>0.50128485551569713</v>
       </c>
       <c r="H5" s="0">
-        <v>282</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>247.5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.0083333333333333332</v>
       </c>
       <c r="B6" s="0">
-        <v>33.051379859167362</v>
+        <v>35.020544640300422</v>
       </c>
       <c r="C6" s="0">
-        <v>16.172682622016822</v>
+        <v>16.204328356616671</v>
       </c>
       <c r="D6" s="0">
-        <v>0.4893194381272119</v>
+        <v>0.46270920464124632</v>
       </c>
       <c r="E6" s="0">
-        <v>30.292616485853422</v>
+        <v>30.610743259516603</v>
       </c>
       <c r="F6" s="0">
-        <v>15.243230345571105</v>
+        <v>15.252512662761756</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50319952892447095</v>
+        <v>0.49827318903861922</v>
       </c>
       <c r="H6" s="0">
-        <v>281</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>247.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.0086666666666666663</v>
       </c>
       <c r="B7" s="0">
-        <v>33.144376478583418</v>
+        <v>35.11391883754348</v>
       </c>
       <c r="C7" s="0">
-        <v>16.206766987962084</v>
+        <v>16.278583163972016</v>
       </c>
       <c r="D7" s="0">
-        <v>0.48897486421065289</v>
+        <v>0.46359346102284388</v>
       </c>
       <c r="E7" s="0">
-        <v>30.380946399435807</v>
+        <v>30.70026999890041</v>
       </c>
       <c r="F7" s="0">
-        <v>15.305862172752631</v>
+        <v>15.337890741797686</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50379807039312219</v>
+        <v>0.49960116775347718</v>
       </c>
       <c r="H7" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>247.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.0090000000000000011</v>
       </c>
       <c r="B8" s="0">
-        <v>33.222573189920894</v>
+        <v>34.720323321491925</v>
       </c>
       <c r="C8" s="0">
-        <v>16.280306914143384</v>
+        <v>15.933081566429149</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49003750615808783</v>
+        <v>0.45889784547503193</v>
       </c>
       <c r="E8" s="0">
-        <v>30.420725389849224</v>
+        <v>30.770627147941887</v>
       </c>
       <c r="F8" s="0">
-        <v>15.326754929914344</v>
+        <v>15.373363899942538</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50382608348414237</v>
+        <v>0.4996116532181501</v>
       </c>
       <c r="H8" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I8" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.0093333333333333341</v>
       </c>
       <c r="B9" s="0">
-        <v>33.290167005814595</v>
+        <v>34.782452001312727</v>
       </c>
       <c r="C9" s="0">
-        <v>16.280345067674681</v>
+        <v>15.985983610313303</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48904365859237325</v>
+        <v>0.45959909927310399</v>
       </c>
       <c r="E9" s="0">
-        <v>30.495546772448243</v>
+        <v>30.833659773795375</v>
       </c>
       <c r="F9" s="0">
-        <v>15.390815272280866</v>
+        <v>15.431302458765821</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50469058276357837</v>
+        <v>0.50046937573983463</v>
       </c>
       <c r="H9" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I9" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.0096666666666666672</v>
       </c>
       <c r="B10" s="0">
-        <v>33.3482677238365</v>
+        <v>34.848722231711442</v>
       </c>
       <c r="C10" s="0">
-        <v>16.335566351619534</v>
+        <v>16.040471173122416</v>
       </c>
       <c r="D10" s="0">
-        <v>0.48984752332257675</v>
+        <v>0.46028864606479025</v>
       </c>
       <c r="E10" s="0">
-        <v>30.525144095978675</v>
+        <v>30.88621676200659</v>
       </c>
       <c r="F10" s="0">
-        <v>15.394546399453459</v>
+        <v>15.485614300039105</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50432346366815373</v>
+        <v>0.50137620995680177</v>
       </c>
       <c r="H10" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I10" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.01</v>
       </c>
       <c r="B11" s="0">
-        <v>33.39462924544231</v>
+        <v>34.902943652677102</v>
       </c>
       <c r="C11" s="0">
-        <v>16.317367183436009</v>
+        <v>16.086617324795494</v>
       </c>
       <c r="D11" s="0">
-        <v>0.48862249865112661</v>
+        <v>0.46089571942341401</v>
       </c>
       <c r="E11" s="0">
-        <v>30.590676489596902</v>
+        <v>30.945583760443384</v>
       </c>
       <c r="F11" s="0">
-        <v>15.480958121910632</v>
+        <v>15.53188159928167</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50606785787085506</v>
+        <v>0.50190947178496959</v>
       </c>
       <c r="H11" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I11" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="29.9296875" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>34.852685675233843</v>
+        <v>34.827570920459564</v>
       </c>
       <c r="C2" s="0">
-        <v>16.082241287026495</v>
+        <v>16.095624835736984</v>
       </c>
       <c r="D2" s="0">
-        <v>0.46143477828035678</v>
+        <v>0.46215180704094294</v>
       </c>
       <c r="E2" s="0">
-        <v>30.762583279862866</v>
+        <v>30.621983369473156</v>
       </c>
       <c r="F2" s="0">
-        <v>15.359820453489798</v>
+        <v>15.265674596829825</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49930203565005249</v>
+        <v>0.49852011258186729</v>
       </c>
       <c r="H2" s="0">
-        <v>339</v>
+        <v>338.5</v>
       </c>
       <c r="I2" s="0">
-        <v>303.5</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.0073333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>35.056145633056971</v>
+        <v>35.042927225540694</v>
       </c>
       <c r="C3" s="0">
-        <v>16.252334883549981</v>
+        <v>16.288836562883279</v>
       </c>
       <c r="D3" s="0">
-        <v>0.46360872223854754</v>
+        <v>0.46482522587357716</v>
       </c>
       <c r="E3" s="0">
-        <v>30.589320366890298</v>
+        <v>30.466776504714311</v>
       </c>
       <c r="F3" s="0">
-        <v>15.21192787004836</v>
+        <v>15.146040905679763</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49729538569656034</v>
+        <v>0.49713302959163153</v>
       </c>
       <c r="H3" s="0">
-        <v>339</v>
+        <v>338.5</v>
       </c>
       <c r="I3" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.0076666666666666671</v>
       </c>
       <c r="B4" s="0">
-        <v>34.758320304648343</v>
+        <v>34.733189821720366</v>
       </c>
       <c r="C4" s="0">
-        <v>15.978548903702665</v>
+        <v>16.040995910440088</v>
       </c>
       <c r="D4" s="0">
-        <v>0.45970428845969868</v>
+        <v>0.46183480390876358</v>
       </c>
       <c r="E4" s="0">
-        <v>30.74272736618687</v>
+        <v>30.601932513401579</v>
       </c>
       <c r="F4" s="0">
-        <v>15.359180370335979</v>
+        <v>15.25660732043486</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49960370097902063</v>
+        <v>0.498550453104669</v>
       </c>
       <c r="H4" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I4" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B5" s="0">
-        <v>34.89133841210343</v>
+        <v>34.878446303742066</v>
       </c>
       <c r="C5" s="0">
-        <v>16.09135863563845</v>
+        <v>16.114132308030729</v>
       </c>
       <c r="D5" s="0">
-        <v>0.46118490628197084</v>
+        <v>0.4620083179078382</v>
       </c>
       <c r="E5" s="0">
-        <v>30.862960336249095</v>
+        <v>30.729153510854232</v>
       </c>
       <c r="F5" s="0">
-        <v>15.47113461294332</v>
+        <v>15.368503922073144</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50128485551569713</v>
+        <v>0.50012779937607588</v>
       </c>
       <c r="H5" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I5" s="0">
-        <v>303</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.0083333333333333332</v>
       </c>
       <c r="B6" s="0">
-        <v>35.020544640300422</v>
+        <v>35.007017093821759</v>
       </c>
       <c r="C6" s="0">
-        <v>16.204328356616671</v>
+        <v>16.233214148377709</v>
       </c>
       <c r="D6" s="0">
-        <v>0.46270920464124632</v>
+        <v>0.46371314942005271</v>
       </c>
       <c r="E6" s="0">
-        <v>30.610743259516603</v>
+        <v>30.489932126339767</v>
       </c>
       <c r="F6" s="0">
-        <v>15.252512662761756</v>
+        <v>15.167643760899209</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49827318903861922</v>
+        <v>0.49746400543135755</v>
       </c>
       <c r="H6" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I6" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.0086666666666666663</v>
       </c>
       <c r="B7" s="0">
-        <v>35.11391883754348</v>
+        <v>35.100392017634896</v>
       </c>
       <c r="C7" s="0">
-        <v>16.278583163972016</v>
+        <v>16.286205171736995</v>
       </c>
       <c r="D7" s="0">
-        <v>0.46359346102284388</v>
+        <v>0.46398926722968203</v>
       </c>
       <c r="E7" s="0">
-        <v>30.70026999890041</v>
+        <v>30.567216220576341</v>
       </c>
       <c r="F7" s="0">
-        <v>15.337890741797686</v>
+        <v>15.224066924400196</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49960116775347718</v>
+        <v>0.49805212272330202</v>
       </c>
       <c r="H7" s="0">
         <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.0090000000000000011</v>
       </c>
       <c r="B8" s="0">
-        <v>34.720323321491925</v>
+        <v>34.691568300702841</v>
       </c>
       <c r="C8" s="0">
-        <v>15.933081566429149</v>
+        <v>15.986264184264474</v>
       </c>
       <c r="D8" s="0">
-        <v>0.45889784547503193</v>
+        <v>0.46081122783776246</v>
       </c>
       <c r="E8" s="0">
-        <v>30.770627147941887</v>
+        <v>30.649578796203976</v>
       </c>
       <c r="F8" s="0">
-        <v>15.373363899942538</v>
+        <v>15.296118262943807</v>
       </c>
       <c r="G8" s="0">
-        <v>0.4996116532181501</v>
+        <v>0.49906455043480952</v>
       </c>
       <c r="H8" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I8" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.0093333333333333341</v>
       </c>
       <c r="B9" s="0">
-        <v>34.782452001312727</v>
+        <v>34.775742751376669</v>
       </c>
       <c r="C9" s="0">
-        <v>15.985983610313303</v>
+        <v>16.062318188654977</v>
       </c>
       <c r="D9" s="0">
-        <v>0.45959909927310399</v>
+        <v>0.46188282169815387</v>
       </c>
       <c r="E9" s="0">
-        <v>30.833659773795375</v>
+        <v>30.748877890738044</v>
       </c>
       <c r="F9" s="0">
-        <v>15.431302458765821</v>
+        <v>15.397482198186733</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50046937573983463</v>
+        <v>0.50074940142204838</v>
       </c>
       <c r="H9" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I9" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.0096666666666666672</v>
       </c>
       <c r="B10" s="0">
-        <v>34.848722231711442</v>
+        <v>34.819224916615333</v>
       </c>
       <c r="C10" s="0">
-        <v>16.040471173122416</v>
+        <v>16.101283467201643</v>
       </c>
       <c r="D10" s="0">
-        <v>0.46028864606479025</v>
+        <v>0.46242509722030878</v>
       </c>
       <c r="E10" s="0">
-        <v>30.88621676200659</v>
+        <v>30.806176384232835</v>
       </c>
       <c r="F10" s="0">
-        <v>15.485614300039105</v>
+        <v>15.433478317216988</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50137620995680177</v>
+        <v>0.50098649454971389</v>
       </c>
       <c r="H10" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I10" s="0">
-        <v>302</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.01</v>
       </c>
       <c r="B11" s="0">
-        <v>34.902943652677102</v>
+        <v>34.879840706953978</v>
       </c>
       <c r="C11" s="0">
-        <v>16.086617324795494</v>
+        <v>16.115517118376538</v>
       </c>
       <c r="D11" s="0">
-        <v>0.46089571942341401</v>
+        <v>0.46202955035753918</v>
       </c>
       <c r="E11" s="0">
-        <v>30.945583760443384</v>
+        <v>30.860874543032381</v>
       </c>
       <c r="F11" s="0">
-        <v>15.53188159928167</v>
+        <v>15.505205216596877</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50190947178496959</v>
+        <v>0.50242274226468953</v>
       </c>
       <c r="H11" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I11" s="0">
-        <v>302</v>
+        <v>300.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_diameter_sweep_results.xlsx
+++ b/Graphs/vaalve_diameter_sweep_results.xlsx
@@ -136,28 +136,28 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>34.827570920459564</v>
+        <v>34.852685675233843</v>
       </c>
       <c r="C2" s="0">
-        <v>16.095624835736984</v>
+        <v>16.082241287026495</v>
       </c>
       <c r="D2" s="0">
-        <v>0.46215180704094294</v>
+        <v>0.46143477828035678</v>
       </c>
       <c r="E2" s="0">
-        <v>30.621983369473156</v>
+        <v>30.762583279862866</v>
       </c>
       <c r="F2" s="0">
-        <v>15.265674596829825</v>
+        <v>15.359820453489798</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49852011258186729</v>
+        <v>0.49930203565005249</v>
       </c>
       <c r="H2" s="0">
-        <v>338.5</v>
+        <v>339</v>
       </c>
       <c r="I2" s="0">
-        <v>302.5</v>
+        <v>303.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.0073333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>35.042927225540694</v>
+        <v>35.056145633056971</v>
       </c>
       <c r="C3" s="0">
-        <v>16.288836562883279</v>
+        <v>16.252334883549981</v>
       </c>
       <c r="D3" s="0">
-        <v>0.46482522587357716</v>
+        <v>0.46360872223854754</v>
       </c>
       <c r="E3" s="0">
-        <v>30.466776504714311</v>
+        <v>30.589320366890298</v>
       </c>
       <c r="F3" s="0">
-        <v>15.146040905679763</v>
+        <v>15.21192787004836</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49713302959163153</v>
+        <v>0.49729538569656034</v>
       </c>
       <c r="H3" s="0">
-        <v>338.5</v>
+        <v>339</v>
       </c>
       <c r="I3" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.0076666666666666671</v>
       </c>
       <c r="B4" s="0">
-        <v>34.733189821720366</v>
+        <v>34.758320304648343</v>
       </c>
       <c r="C4" s="0">
-        <v>16.040995910440088</v>
+        <v>15.978548903702665</v>
       </c>
       <c r="D4" s="0">
-        <v>0.46183480390876358</v>
+        <v>0.45970428845969868</v>
       </c>
       <c r="E4" s="0">
-        <v>30.601932513401579</v>
+        <v>30.74272736618687</v>
       </c>
       <c r="F4" s="0">
-        <v>15.25660732043486</v>
+        <v>15.359180370335979</v>
       </c>
       <c r="G4" s="0">
-        <v>0.498550453104669</v>
+        <v>0.49960370097902063</v>
       </c>
       <c r="H4" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="B5" s="0">
-        <v>34.878446303742066</v>
+        <v>34.89133841210343</v>
       </c>
       <c r="C5" s="0">
-        <v>16.114132308030729</v>
+        <v>16.09135863563845</v>
       </c>
       <c r="D5" s="0">
-        <v>0.4620083179078382</v>
+        <v>0.46118490628197084</v>
       </c>
       <c r="E5" s="0">
-        <v>30.729153510854232</v>
+        <v>30.862960336249095</v>
       </c>
       <c r="F5" s="0">
-        <v>15.368503922073144</v>
+        <v>15.47113461294332</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50012779937607588</v>
+        <v>0.50128485551569713</v>
       </c>
       <c r="H5" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>301.5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.0083333333333333332</v>
       </c>
       <c r="B6" s="0">
-        <v>35.007017093821759</v>
+        <v>35.020544640300422</v>
       </c>
       <c r="C6" s="0">
-        <v>16.233214148377709</v>
+        <v>16.204328356616671</v>
       </c>
       <c r="D6" s="0">
-        <v>0.46371314942005271</v>
+        <v>0.46270920464124632</v>
       </c>
       <c r="E6" s="0">
-        <v>30.489932126339767</v>
+        <v>30.610743259516603</v>
       </c>
       <c r="F6" s="0">
-        <v>15.167643760899209</v>
+        <v>15.252512662761756</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49746400543135755</v>
+        <v>0.49827318903861922</v>
       </c>
       <c r="H6" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.0086666666666666663</v>
       </c>
       <c r="B7" s="0">
-        <v>35.100392017634896</v>
+        <v>35.11391883754348</v>
       </c>
       <c r="C7" s="0">
-        <v>16.286205171736995</v>
+        <v>16.278583163972016</v>
       </c>
       <c r="D7" s="0">
-        <v>0.46398926722968203</v>
+        <v>0.46359346102284388</v>
       </c>
       <c r="E7" s="0">
-        <v>30.567216220576341</v>
+        <v>30.70026999890041</v>
       </c>
       <c r="F7" s="0">
-        <v>15.224066924400196</v>
+        <v>15.337890741797686</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49805212272330202</v>
+        <v>0.49960116775347718</v>
       </c>
       <c r="H7" s="0">
         <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.0090000000000000011</v>
       </c>
       <c r="B8" s="0">
-        <v>34.691568300702841</v>
+        <v>34.720323321491925</v>
       </c>
       <c r="C8" s="0">
-        <v>15.986264184264474</v>
+        <v>15.933081566429149</v>
       </c>
       <c r="D8" s="0">
-        <v>0.46081122783776246</v>
+        <v>0.45889784547503193</v>
       </c>
       <c r="E8" s="0">
-        <v>30.649578796203976</v>
+        <v>30.770627147941887</v>
       </c>
       <c r="F8" s="0">
-        <v>15.296118262943807</v>
+        <v>15.373363899942538</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49906455043480952</v>
+        <v>0.4996116532181501</v>
       </c>
       <c r="H8" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I8" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.0093333333333333341</v>
       </c>
       <c r="B9" s="0">
-        <v>34.775742751376669</v>
+        <v>34.782452001312727</v>
       </c>
       <c r="C9" s="0">
-        <v>16.062318188654977</v>
+        <v>15.985983610313303</v>
       </c>
       <c r="D9" s="0">
-        <v>0.46188282169815387</v>
+        <v>0.45959909927310399</v>
       </c>
       <c r="E9" s="0">
-        <v>30.748877890738044</v>
+        <v>30.833659773795375</v>
       </c>
       <c r="F9" s="0">
-        <v>15.397482198186733</v>
+        <v>15.431302458765821</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50074940142204838</v>
+        <v>0.50046937573983463</v>
       </c>
       <c r="H9" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I9" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.0096666666666666672</v>
       </c>
       <c r="B10" s="0">
-        <v>34.819224916615333</v>
+        <v>34.848722231711442</v>
       </c>
       <c r="C10" s="0">
-        <v>16.101283467201643</v>
+        <v>16.040471173122416</v>
       </c>
       <c r="D10" s="0">
-        <v>0.46242509722030878</v>
+        <v>0.46028864606479025</v>
       </c>
       <c r="E10" s="0">
-        <v>30.806176384232835</v>
+        <v>30.88621676200659</v>
       </c>
       <c r="F10" s="0">
-        <v>15.433478317216988</v>
+        <v>15.485614300039105</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50098649454971389</v>
+        <v>0.50137620995680177</v>
       </c>
       <c r="H10" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I10" s="0">
-        <v>300.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.01</v>
       </c>
       <c r="B11" s="0">
-        <v>34.879840706953978</v>
+        <v>34.902943652677102</v>
       </c>
       <c r="C11" s="0">
-        <v>16.115517118376538</v>
+        <v>16.086617324795494</v>
       </c>
       <c r="D11" s="0">
-        <v>0.46202955035753918</v>
+        <v>0.46089571942341401</v>
       </c>
       <c r="E11" s="0">
-        <v>30.860874543032381</v>
+        <v>30.945583760443384</v>
       </c>
       <c r="F11" s="0">
-        <v>15.505205216596877</v>
+        <v>15.53188159928167</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50242274226468953</v>
+        <v>0.50190947178496959</v>
       </c>
       <c r="H11" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I11" s="0">
-        <v>300.5</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
